--- a/Angular_Project/Angular_Project/Test Card/Test Card.xlsx
+++ b/Angular_Project/Angular_Project/Test Card/Test Card.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="60">
   <si>
     <t>Days Commit in GitHub</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>Динко Кръстев</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -669,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:E28"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1048,7 +1051,9 @@
       <c r="D34" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E34" s="7"/>
+      <c r="E34" s="7" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
@@ -1058,7 +1063,9 @@
       <c r="D35" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E35" s="7"/>
+      <c r="E35" s="7" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="s">
@@ -1068,7 +1075,9 @@
       <c r="D36" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E36" s="7"/>
+      <c r="E36" s="7" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
@@ -1078,7 +1087,9 @@
       <c r="D37" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E37" s="7"/>
+      <c r="E37" s="7" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
@@ -1088,7 +1099,9 @@
       <c r="D38" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E38" s="7"/>
+      <c r="E38" s="7" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
@@ -1098,7 +1111,9 @@
       <c r="D39" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E39" s="7"/>
+      <c r="E39" s="7" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="4" t="s">
@@ -1108,7 +1123,9 @@
       <c r="D40" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E40" s="7"/>
+      <c r="E40" s="7" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
@@ -1118,7 +1135,9 @@
       <c r="D41" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E41" s="7"/>
+      <c r="E41" s="7" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="s">
@@ -1128,7 +1147,9 @@
       <c r="D42" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E42" s="7"/>
+      <c r="E42" s="7" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="s">
@@ -1138,7 +1159,9 @@
       <c r="D43" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E43" s="7"/>
+      <c r="E43" s="7" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" s="4" t="s">
@@ -1148,7 +1171,9 @@
       <c r="D44" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E44" s="7"/>
+      <c r="E44" s="7" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
@@ -1158,7 +1183,9 @@
       <c r="D45" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E45" s="7"/>
+      <c r="E45" s="7" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" s="4" t="s">
@@ -1168,7 +1195,9 @@
       <c r="D46" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E46" s="7"/>
+      <c r="E46" s="7" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47" s="4" t="s">
@@ -1178,7 +1207,9 @@
       <c r="D47" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E47" s="7"/>
+      <c r="E47" s="7" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" s="4" t="s">
@@ -1188,7 +1219,9 @@
       <c r="D48" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E48" s="7"/>
+      <c r="E48" s="7" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" s="4" t="s">
@@ -1198,7 +1231,9 @@
       <c r="D49" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E49" s="7"/>
+      <c r="E49" s="7" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" s="4" t="s">
@@ -1208,7 +1243,9 @@
       <c r="D50" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E50" s="7"/>
+      <c r="E50" s="7" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="51" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
